--- a/biology/Biochimie/Réactif_de_Griess/Réactif_de_Griess.xlsx
+++ b/biology/Biochimie/Réactif_de_Griess/Réactif_de_Griess.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9actif_de_Griess</t>
+          <t>Réactif_de_Griess</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réactif de Griess est un réactif très utilisé pour déterminer les micro-organismes possédant une enzyme nitrate réductase (dits « nitrate + ») et ceux qui en sont dépourvus (dits « nitrate - » ou "nitrate ++").
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9actif_de_Griess</t>
+          <t>Réactif_de_Griess</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réactif de Griess réagit avec l'ion nitrite (NO2−) pour former un colorant rouge.
 Il est composé de deux réactifs. L'ion nitrite forme avec l'acide sulfanilique (réactif 1) un sel de diazonium. Ce sel est révélé par une coloration rouge par adjonction d'α-naphtylamine (réactif 2).
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9actif_de_Griess</t>
+          <t>Réactif_de_Griess</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">G. Toupance, A. Person et al., Pollution atmosphérique gazeuse - Mesure des gaz, chap. Méthode chimique manuelle de Griess et Saltzman, Éditions techniques de l'ingénieur, P 4 031-3.
  Portail de la biochimie   Portail de la chimie                    </t>
